--- a/Code/Results/Cases/Case_2_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.644851144530151</v>
+        <v>1.200971579659949</v>
       </c>
       <c r="C2">
-        <v>0.9980738741323307</v>
+        <v>0.3361774439583201</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1.443476336218438</v>
+        <v>0.4255972566567436</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746121</v>
       </c>
       <c r="G2">
-        <v>0.0007679706227632857</v>
+        <v>0.002368582064315912</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.6607844374109675</v>
+        <v>1.069890387247725</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.168698286383744</v>
+        <v>1.051621418813795</v>
       </c>
       <c r="C3">
-        <v>0.8762457068229992</v>
+        <v>0.2967115533359959</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>1.237095947501004</v>
+        <v>0.3711417644439621</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.3878228170618172</v>
       </c>
       <c r="G3">
-        <v>0.000773381370655422</v>
+        <v>0.002371829086850574</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.6185569960940143</v>
+        <v>1.090993658087555</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.877377159451271</v>
+        <v>0.959670628208471</v>
       </c>
       <c r="C4">
-        <v>0.8016352583595392</v>
+        <v>0.2723734315802346</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1.113097919745542</v>
+        <v>0.3378068073238722</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305169483</v>
       </c>
       <c r="G4">
-        <v>0.000776782792166662</v>
+        <v>0.002373923396827502</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.5991301586549724</v>
+        <v>1.10583627643517</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.758850703218002</v>
+        <v>0.9221387855381522</v>
       </c>
       <c r="C5">
-        <v>0.7712626400260376</v>
+        <v>0.2624293250775906</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1.063144823527395</v>
+        <v>0.3242458192022468</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0007781898236666331</v>
+        <v>0.002374802232908868</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.5927084596095824</v>
+        <v>1.112355092281305</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739178921540997</v>
+        <v>0.9159030037884008</v>
       </c>
       <c r="C6">
-        <v>0.7662207489041464</v>
+        <v>0.2607765510839499</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1.054882070978721</v>
+        <v>0.3219953722615969</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.000778424752068892</v>
+        <v>0.002374949698750221</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.591728542726571</v>
+        <v>1.11346583505663</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.875777994454495</v>
+        <v>0.9591647062063657</v>
       </c>
       <c r="C7">
-        <v>0.8012255349991051</v>
+        <v>0.2722394269730728</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1.112422032109919</v>
+        <v>0.3376238275949675</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.000776801681874828</v>
+        <v>0.002373935146127418</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.5990376776378241</v>
+        <v>1.105922292040518</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.480412681324594</v>
+        <v>1.149528212580606</v>
       </c>
       <c r="C8">
-        <v>0.9560170033792588</v>
+        <v>0.3225918739981921</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1.371684029990817</v>
+        <v>0.4067987675111766</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813478</v>
       </c>
       <c r="G8">
-        <v>0.0007698204439369749</v>
+        <v>0.002369680804228347</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.6447875194188555</v>
+        <v>1.076773310276039</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.67798392414403</v>
+        <v>1.520806752169165</v>
       </c>
       <c r="C9">
-        <v>1.261942435225023</v>
+        <v>0.420475497740938</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1.90712846594856</v>
+        <v>0.5433530667459223</v>
       </c>
       <c r="F9">
-        <v>1.895061171845313</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0007567083621076528</v>
+        <v>0.002362132564603717</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.7930061927670522</v>
+        <v>1.034736413520363</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.570824096785657</v>
+        <v>1.79231821255172</v>
       </c>
       <c r="C10">
-        <v>1.48951080937519</v>
+        <v>0.4918526480182663</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>2.325716338923527</v>
+        <v>0.6443799984424032</v>
       </c>
       <c r="F10">
-        <v>2.275587181990787</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0007473489248862042</v>
+        <v>0.002357065726569811</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.9482865039502997</v>
+        <v>1.013301976229172</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.981291882641358</v>
+        <v>1.915556186411379</v>
       </c>
       <c r="C11">
-        <v>1.593997163247309</v>
+        <v>0.5242045864798683</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>2.52393941564867</v>
+        <v>0.6905252142550324</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0007431304654730766</v>
+        <v>0.00235486349148889</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.031745493758194</v>
+        <v>1.005652523673376</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.137484399211246</v>
+        <v>1.962182871533628</v>
       </c>
       <c r="C12">
-        <v>1.633735453051656</v>
+        <v>0.5364381167842112</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.600354888729541</v>
+        <v>0.7080287291752114</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0007415367569542355</v>
+        <v>0.00235404424023058</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.065457433361928</v>
+        <v>1.003062099067137</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.103809488468755</v>
+        <v>1.952142820816562</v>
       </c>
       <c r="C13">
-        <v>1.625168899197263</v>
+        <v>0.5338041908304376</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>2.583833220026648</v>
+        <v>0.7042576920939752</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0007418798577792875</v>
+        <v>0.002354220028606845</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.058098637897416</v>
+        <v>1.003606306865947</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.994125908137335</v>
+        <v>1.919393019016013</v>
       </c>
       <c r="C14">
-        <v>1.597262813488271</v>
+        <v>0.5252113988251494</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>2.530197600896116</v>
+        <v>0.6919646376862545</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0007429992871709756</v>
+        <v>0.002354795797299052</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.034475114480074</v>
+        <v>1.00543324643553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.9270445452226</v>
+        <v>1.899327455705759</v>
       </c>
       <c r="C15">
-        <v>1.580192925584413</v>
+        <v>0.5199457790796487</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>2.497527861280346</v>
+        <v>0.6844386760425749</v>
       </c>
       <c r="F15">
-        <v>2.428326063136538</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.000743685394882957</v>
+        <v>0.002355150382586546</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.020287954503658</v>
+        <v>1.006592305637696</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.544097157455781</v>
+        <v>1.784258682090524</v>
       </c>
       <c r="C16">
-        <v>1.482704500867612</v>
+        <v>0.4897359579907743</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>2.312937927407958</v>
+        <v>0.6413682745653944</v>
       </c>
       <c r="F16">
-        <v>2.264147245220144</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0007476252424825798</v>
+        <v>0.002357211707493911</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.9431120730236557</v>
+        <v>1.013844518019482</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.310367822159151</v>
+        <v>1.71359649292765</v>
       </c>
       <c r="C17">
-        <v>1.423167589580373</v>
+        <v>0.4711726616582723</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>2.201849907192781</v>
+        <v>0.6149956799368539</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337215605</v>
       </c>
       <c r="G17">
-        <v>0.0007500509709434389</v>
+        <v>0.002358502509302529</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.8992285322445639</v>
+        <v>1.018834597268636</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.176329416294323</v>
+        <v>1.672927769901605</v>
       </c>
       <c r="C18">
-        <v>1.389012095122098</v>
+        <v>0.4604844774078174</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>2.138673955318524</v>
+        <v>0.5998443722030942</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0007514500027033244</v>
+        <v>0.002359254615137588</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8751770032753825</v>
+        <v>1.021902285317395</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.131010505609822</v>
+        <v>1.659153670387752</v>
       </c>
       <c r="C19">
-        <v>1.377461908595592</v>
+        <v>0.4568637563723996</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2.117400700892333</v>
+        <v>0.5947173361642513</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.6191636801734006</v>
       </c>
       <c r="G19">
-        <v>0.0007519244005026791</v>
+        <v>0.002359510928752079</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.8672302939633596</v>
+        <v>1.022974752150645</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.335206728693777</v>
+        <v>1.721121274278232</v>
       </c>
       <c r="C20">
-        <v>1.429496004873386</v>
+        <v>0.4731499052709864</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>2.213599455334631</v>
+        <v>0.6178012583380905</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0007497923659671905</v>
+        <v>0.002358364100873137</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0.90377513409112</v>
+        <v>1.018282921909332</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.026320899475081</v>
+        <v>1.92901355009576</v>
       </c>
       <c r="C21">
-        <v>1.605454566711444</v>
+        <v>0.5277357875060602</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>2.545912950399071</v>
+        <v>0.6955745910188114</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723492197</v>
       </c>
       <c r="G21">
-        <v>0.0007426703988059891</v>
+        <v>0.002354626282061364</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.041354432315671</v>
+        <v>1.004888285432571</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.482494905412636</v>
+        <v>2.064644352272865</v>
       </c>
       <c r="C22">
-        <v>1.721472308090199</v>
+        <v>0.5633089043030282</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>2.771118732497001</v>
+        <v>0.7465759933968314</v>
       </c>
       <c r="F22">
-        <v>2.667416158031997</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.000738036448521722</v>
+        <v>0.002352268973703608</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.14370527297433</v>
+        <v>0.997921135936565</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>6.238565193787906</v>
+        <v>1.992277965507355</v>
       </c>
       <c r="C23">
-        <v>1.659446193825204</v>
+        <v>0.5443323474696058</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>2.650102188894891</v>
+        <v>0.7193390579660104</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0007405084826560301</v>
+        <v>0.002353519310095399</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.087844277934238</v>
+        <v>1.001474760067936</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.323976023571845</v>
+        <v>1.717719457852638</v>
       </c>
       <c r="C24">
-        <v>1.426634703154036</v>
+        <v>0.472256042919355</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>2.208285352221452</v>
+        <v>0.6165328233760761</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0007499092673217417</v>
+        <v>0.002358426644270412</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0.9017159666335601</v>
+        <v>1.0185317153298</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.352182379978046</v>
+        <v>1.420586322052145</v>
       </c>
       <c r="C25">
-        <v>1.178796381680911</v>
+        <v>0.3940888007044236</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>1.758553363287547</v>
+        <v>0.5062994664214244</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0007602012176166163</v>
+        <v>0.002364090075321121</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0.7456101252490015</v>
+        <v>1.044465640841835</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_129/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_129/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.200971579659949</v>
+        <v>3.644851144530037</v>
       </c>
       <c r="C2">
-        <v>0.3361774439583201</v>
+        <v>0.9980738741323307</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.4255972566567436</v>
+        <v>1.443476336218438</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746121</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.002368582064315912</v>
+        <v>0.0007679706227311725</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.069890387247725</v>
+        <v>0.6607844374109533</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.051621418813795</v>
+        <v>3.168698286383972</v>
       </c>
       <c r="C3">
-        <v>0.2967115533359959</v>
+        <v>0.876245706823255</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.3711417644439621</v>
+        <v>1.23709594750099</v>
       </c>
       <c r="F3">
-        <v>0.3878228170618172</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002371829086850574</v>
+        <v>0.0007733813705980512</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.090993658087555</v>
+        <v>0.6185569960940853</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.959670628208471</v>
+        <v>2.8773771594511</v>
       </c>
       <c r="C4">
-        <v>0.2723734315802346</v>
+        <v>0.8016352583594823</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.3378068073238722</v>
+        <v>1.113097919745513</v>
       </c>
       <c r="F4">
-        <v>0.3531389305169483</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002373923396827502</v>
+        <v>0.0007767827921647141</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.10583627643517</v>
+        <v>0.5991301586549866</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9221387855381522</v>
+        <v>2.758850703218059</v>
       </c>
       <c r="C5">
-        <v>0.2624293250775906</v>
+        <v>0.771262640026066</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.3242458192022468</v>
+        <v>1.063144823527409</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.002374802232908868</v>
+        <v>0.0007781898236817817</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.112355092281305</v>
+        <v>0.5927084596096392</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9159030037884008</v>
+        <v>2.739178921540599</v>
       </c>
       <c r="C6">
-        <v>0.2607765510839499</v>
+        <v>0.766220748904118</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.3219953722615969</v>
+        <v>1.054882070978721</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002374949698750221</v>
+        <v>0.000778424752068892</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.11346583505663</v>
+        <v>0.5917285427265142</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9591647062063657</v>
+        <v>2.875777994454495</v>
       </c>
       <c r="C7">
-        <v>0.2722394269730728</v>
+        <v>0.8012255349991904</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.3376238275949675</v>
+        <v>1.112422032109919</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002373935146127418</v>
+        <v>0.0007768016819470804</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.105922292040518</v>
+        <v>0.5990376776378241</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.149528212580606</v>
+        <v>3.480412681324708</v>
       </c>
       <c r="C8">
-        <v>0.3225918739981921</v>
+        <v>0.9560170033789461</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.4067987675111766</v>
+        <v>1.371684029990789</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813478</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002369680804228347</v>
+        <v>0.0007698204439940126</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.076773310276039</v>
+        <v>0.6447875194189265</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.520806752169165</v>
+        <v>4.677983924143859</v>
       </c>
       <c r="C9">
-        <v>0.420475497740938</v>
+        <v>1.261942435224626</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.5433530667459223</v>
+        <v>1.90712846594856</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171845327</v>
       </c>
       <c r="G9">
-        <v>0.002362132564603717</v>
+        <v>0.0007567083621241396</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.034736413520363</v>
+        <v>0.793006192767109</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.79231821255172</v>
+        <v>5.570824096785941</v>
       </c>
       <c r="C10">
-        <v>0.4918526480182663</v>
+        <v>1.489510809375702</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.6443799984424032</v>
+        <v>2.325716338923527</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990801</v>
       </c>
       <c r="G10">
-        <v>0.002357065726569811</v>
+        <v>0.000747348924810127</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.013301976229172</v>
+        <v>0.9482865039502428</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.915556186411379</v>
+        <v>5.981291882641585</v>
       </c>
       <c r="C11">
-        <v>0.5242045864798683</v>
+        <v>1.593997163247536</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.6905252142550324</v>
+        <v>2.523939415648655</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639217</v>
       </c>
       <c r="G11">
-        <v>0.00235486349148889</v>
+        <v>0.000743130465490691</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.005652523673376</v>
+        <v>1.031745493758251</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.962182871533628</v>
+        <v>6.137484399211303</v>
       </c>
       <c r="C12">
-        <v>0.5364381167842112</v>
+        <v>1.633735453051372</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.7080287291752114</v>
+        <v>2.600354888729569</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186339</v>
       </c>
       <c r="G12">
-        <v>0.00235404424023058</v>
+        <v>0.0007415367570099418</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.003062099067137</v>
+        <v>1.065457433361928</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.952142820816562</v>
+        <v>6.103809488468471</v>
       </c>
       <c r="C13">
-        <v>0.5338041908304376</v>
+        <v>1.625168899197206</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.7042576920939752</v>
+        <v>2.583833220026634</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236098</v>
       </c>
       <c r="G13">
-        <v>0.002354220028606845</v>
+        <v>0.0007418798577790307</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.003606306865947</v>
+        <v>1.058098637897416</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.919393019016013</v>
+        <v>5.994125908137164</v>
       </c>
       <c r="C14">
-        <v>0.5252113988251494</v>
+        <v>1.597262813488271</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.6919646376862545</v>
+        <v>2.530197600896116</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002354795797299052</v>
+        <v>0.0007429992871676727</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.00543324643553</v>
+        <v>1.034475114480045</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.899327455705759</v>
+        <v>5.92704454522277</v>
       </c>
       <c r="C15">
-        <v>0.5199457790796487</v>
+        <v>1.580192925584242</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.6844386760425749</v>
+        <v>2.497527861280375</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063136538</v>
       </c>
       <c r="G15">
-        <v>0.002355150382586546</v>
+        <v>0.0007436853949022761</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.006592305637696</v>
+        <v>1.020287954503743</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.784258682090524</v>
+        <v>5.544097157455781</v>
       </c>
       <c r="C16">
-        <v>0.4897359579907743</v>
+        <v>1.482704500867385</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.6413682745653944</v>
+        <v>2.312937927407944</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002357211707493911</v>
+        <v>0.000747625242482212</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.013844518019482</v>
+        <v>0.9431120730236557</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.71359649292765</v>
+        <v>5.310367822159094</v>
       </c>
       <c r="C17">
-        <v>0.4711726616582723</v>
+        <v>1.423167589580089</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.6149956799368539</v>
+        <v>2.201849907192795</v>
       </c>
       <c r="F17">
-        <v>0.6400460337215605</v>
+        <v>2.1642275708721</v>
       </c>
       <c r="G17">
-        <v>0.002358502509302529</v>
+        <v>0.0007500509709051768</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.018834597268636</v>
+        <v>0.8992285322446207</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.672927769901605</v>
+        <v>5.176329416294323</v>
       </c>
       <c r="C18">
-        <v>0.4604844774078174</v>
+        <v>1.389012095121871</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.5998443722030942</v>
+        <v>2.138673955318552</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650742</v>
       </c>
       <c r="G18">
-        <v>0.002359254615137588</v>
+        <v>0.0007514500027770987</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.021902285317395</v>
+        <v>0.8751770032753541</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.659153670387752</v>
+        <v>5.131010505609765</v>
       </c>
       <c r="C19">
-        <v>0.4568637563723996</v>
+        <v>1.377461908595649</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.5947173361642513</v>
+        <v>2.117400700892318</v>
       </c>
       <c r="F19">
-        <v>0.6191636801734006</v>
+        <v>2.087706772594757</v>
       </c>
       <c r="G19">
-        <v>0.002359510928752079</v>
+        <v>0.0007519244004662441</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.022974752150645</v>
+        <v>0.8672302939632743</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.721121274278232</v>
+        <v>5.335206728693777</v>
       </c>
       <c r="C20">
-        <v>0.4731499052709864</v>
+        <v>1.429496004873329</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.6178012583380905</v>
+        <v>2.213599455334645</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002358364100873137</v>
+        <v>0.0007497923659111762</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.018282921909332</v>
+        <v>0.9037751340910631</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.92901355009576</v>
+        <v>6.026320899475138</v>
       </c>
       <c r="C21">
-        <v>0.5277357875060602</v>
+        <v>1.605454566711671</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.6955745910188114</v>
+        <v>2.545912950399099</v>
       </c>
       <c r="F21">
-        <v>0.7228739723492197</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002354626282061364</v>
+        <v>0.0007426703988065672</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.004888285432571</v>
+        <v>1.041354432315643</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.064644352272865</v>
+        <v>6.482494905412352</v>
       </c>
       <c r="C22">
-        <v>0.5633089043030282</v>
+        <v>1.721472308090313</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.7465759933968314</v>
+        <v>2.77111873249703</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031955</v>
       </c>
       <c r="G22">
-        <v>0.002352268973703608</v>
+        <v>0.0007380364484104749</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0.997921135936565</v>
+        <v>1.143705272974302</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.992277965507355</v>
+        <v>6.238565193787906</v>
       </c>
       <c r="C23">
-        <v>0.5443323474696058</v>
+        <v>1.659446193825204</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.7193390579660104</v>
+        <v>2.650102188894877</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758789</v>
       </c>
       <c r="G23">
-        <v>0.002353519310095399</v>
+        <v>0.000740508482675108</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.001474760067936</v>
+        <v>1.087844277934266</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.717719457852638</v>
+        <v>5.323976023571618</v>
       </c>
       <c r="C24">
-        <v>0.472256042919355</v>
+        <v>1.426634703154264</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.6165328233760761</v>
+        <v>2.208285352221466</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002358426644270412</v>
+        <v>0.000749909267208039</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.0185317153298</v>
+        <v>0.9017159666335886</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.420586322052145</v>
+        <v>4.352182379978274</v>
       </c>
       <c r="C25">
-        <v>0.3940888007044236</v>
+        <v>1.178796381681138</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.5062994664214244</v>
+        <v>1.758553363287561</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925077</v>
       </c>
       <c r="G25">
-        <v>0.002364090075321121</v>
+        <v>0.0007602012176919824</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.044465640841835</v>
+        <v>0.7456101252489447</v>
       </c>
     </row>
   </sheetData>
